--- a/Warehouse/CF/judgement_logs_run4o.xlsx
+++ b/Warehouse/CF/judgement_logs_run4o.xlsx
@@ -462,7 +462,7 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the movie event on Friday.
+MSG: I have decided to acquire the rights for the movie "Barbie" based on the committee's discussion and preference.
 </t>
         </is>
       </c>
@@ -484,7 +484,7 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the assembly.
 </t>
         </is>
       </c>
@@ -506,13 +506,13 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for both movies, "Oppenheimer" and "Barbie," as they will be shown in their entirety during the event on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -528,13 +528,13 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event.
+MSG: The decision has been made to acquire the rights to "Oppenheimer" for the upcoming event.
 </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -550,7 +550,7 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming assembly.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the student assembly.
 </t>
         </is>
       </c>
@@ -572,7 +572,7 @@
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the senior assembly.
+MSG: The decision has been made to acquire the rights to “Barbie” for the Friday event.
 </t>
         </is>
       </c>
@@ -594,7 +594,7 @@
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -616,7 +616,7 @@
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," and it will be shown on Friday.
+MSG: I have recorded the decision to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -638,7 +638,7 @@
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision is to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -660,7 +660,7 @@
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming event.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -682,7 +682,7 @@
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the event.
+MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event.
 </t>
         </is>
       </c>
@@ -726,7 +726,7 @@
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to "Barbie" for the student event on Friday.
 </t>
         </is>
       </c>
@@ -748,7 +748,7 @@
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to “Barbie” for the upcoming event.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown during the junior class event on Friday.
 </t>
         </is>
       </c>
@@ -770,7 +770,7 @@
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," as it aligns with the sentiments expressed by the PTA committee and the need to resonate with the students.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -792,7 +792,7 @@
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown during the upcoming assembly.
+MSG: The decision has been recorded to show "Barbie" for the upcoming assembly.
 </t>
         </is>
       </c>
@@ -836,13 +836,13 @@
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire public performance rights for both "Oppenheimer" and "Barbie" for the Friday event.
 </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -858,13 +858,13 @@
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" as part of the film series to be shown on Friday.
+MSG: The committee has decided to acquire the rights for both "Oppenheimer" and "Barbie" to showcase them in their entirety on Friday.
 </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -880,7 +880,7 @@
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the movie showing on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -902,7 +902,7 @@
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the assembly.
+MSG: The decision has been made to acquire the rights for "Barbie" as the selected movie for the assembly.
 </t>
         </is>
       </c>
@@ -924,7 +924,7 @@
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision to acquire the rights for "Barbie" has been made. The film will be shown on Friday as it aligns with the committee's goal of creating a positive and engaging experience for high school seniors.
 </t>
         </is>
       </c>
@@ -946,13 +946,13 @@
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights for "Oppenheimer" based on the committee's discussions and the agreed-upon plan.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -968,7 +968,7 @@
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -990,7 +990,7 @@
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1012,7 +1012,7 @@
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: I have decided to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1034,7 +1034,7 @@
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" at the upcoming event.
+MSG: The decision has been made to acquire the rights for "Barbie," which will be shown during the assembly.
 </t>
         </is>
       </c>
@@ -1056,7 +1056,7 @@
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie".
+MSG: The decision has been made to acquire the rights for the movie "Barbie" for the upcoming school event on Friday.
 </t>
         </is>
       </c>
@@ -1078,7 +1078,7 @@
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie” for the upcoming school's event on Friday.
+MSG: The decision is to acquire the rights to "Barbie" for the upcoming movie event.
 </t>
         </is>
       </c>
@@ -1122,7 +1122,7 @@
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Barbie" as the film to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" for the Friday showing.
 </t>
         </is>
       </c>
@@ -1144,13 +1144,13 @@
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I will call the function `no_decision` as the committee decided to involve students in a survey for their preferences rather than making a definitive decision on which movie to show on Friday.
+MSG: The decision has been recorded to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1166,13 +1166,13 @@
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been made to acquire the rights to show "Barbie."
 </t>
         </is>
       </c>
@@ -1210,7 +1210,7 @@
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights to "Barbie" has been recorded.
+MSG: The decision is to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1232,7 +1232,7 @@
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be screened on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1254,7 +1254,7 @@
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been recorded to acquire the rights for "Barbie" as the movie selected for the upcoming event.
 </t>
         </is>
       </c>
@@ -1276,7 +1276,7 @@
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Oppenheimer" has been made.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1298,7 +1298,7 @@
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision is made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1320,7 +1320,7 @@
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the high school event on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event.
 </t>
         </is>
       </c>

--- a/Warehouse/CF/judgement_logs_run4o.xlsx
+++ b/Warehouse/CF/judgement_logs_run4o.xlsx
@@ -462,13 +462,13 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights for the movie "Barbie" based on the committee's discussion and preference.
+MSG: The decision resulted in no movie being selected for Friday.
 </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -484,7 +484,7 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the assembly.
+MSG: The decision has been recorded, and "Barbie" will be showcased on Friday.
 </t>
         </is>
       </c>
@@ -506,7 +506,7 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision to acquire the rights for "Oppenheimer" has been confirmed.
 </t>
         </is>
       </c>
@@ -528,13 +528,13 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Oppenheimer" for the upcoming event.
+MSG: The rights to both movies have been acquired.
 </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -550,13 +550,13 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the student assembly.
+MSG: The decision about which movie will be shown on Friday was not reached, leading to no selection being made.
 </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -572,13 +572,13 @@
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to “Barbie” for the Friday event.
+MSG: The decision has been recorded as no movie selected for Friday.
 </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -616,13 +616,13 @@
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision process concluded without an agreement on the movie to be shown on Friday, resulting in no decision being made.
 </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -638,13 +638,13 @@
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision regarding the movie for Friday concluded with no final agreement on which film to show.
 </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -660,13 +660,13 @@
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no movie selection was made.
 </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -682,13 +682,13 @@
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event.
+MSG: The decision to acquire rights for both movies has been recorded.
 </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -704,13 +704,13 @@
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision about Friday's movie was not finalized, so no action will be taken regarding acquiring movie rights.
 </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -726,13 +726,13 @@
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the student event on Friday.
+MSG: The decision has been recorded, and no movie was selected for Friday.
 </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -748,13 +748,13 @@
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown during the junior class event on Friday.
+MSG: The decision regarding Friday's movie remains unresolved, so I have recorded that there was no decision made.
 </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -770,13 +770,13 @@
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded, reflecting that no movie will be shown on Friday, as the committee did not reach a consensus.
 </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -792,7 +792,7 @@
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to show "Barbie" for the upcoming assembly.
+MSG: The decision to acquire the rights for "Barbie" has been recorded.
 </t>
         </is>
       </c>
@@ -814,13 +814,13 @@
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as "no decision" regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -836,7 +836,7 @@
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire public performance rights for both "Oppenheimer" and "Barbie" for the Friday event.
+MSG: I have successfully acquired the rights to both movies.
 </t>
         </is>
       </c>
@@ -858,7 +858,7 @@
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights for both "Oppenheimer" and "Barbie" to showcase them in their entirety on Friday.
+MSG: The decision to acquire the rights for both movies has been successfully recorded.
 </t>
         </is>
       </c>
@@ -880,13 +880,13 @@
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The committee did not reach a decision regarding a movie for Friday.
 </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -902,7 +902,7 @@
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the selected movie for the assembly.
+MSG: The decision has been recorded and "Barbie" will be the movie acquired for Friday.
 </t>
         </is>
       </c>
@@ -924,13 +924,13 @@
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been made. The film will be shown on Friday as it aligns with the committee's goal of creating a positive and engaging experience for high school seniors.
+MSG: The function for no decision has been called, indicating that there was no agreement reached on which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -946,13 +946,13 @@
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made: there is no definitive choice for the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -968,13 +968,13 @@
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Barbie" to be shown on Friday.
+MSG: The decision regarding the movie to be shown on Friday has been recorded as no decision being made.
 </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision to show "Barbie" has been finalized.
 </t>
         </is>
       </c>
@@ -1012,13 +1012,13 @@
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision regarding the movie to be shown on Friday has resulted in no agreement. Therefore, no further action is taken.
 </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1034,7 +1034,7 @@
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," which will be shown during the assembly.
+MSG: The decision has been recorded; the movie "Barbie" will be acquired for the event.
 </t>
         </is>
       </c>
@@ -1056,13 +1056,13 @@
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie "Barbie" for the upcoming school event on Friday.
+MSG: The decision about which movie to show on Friday was not made.
 </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1078,7 +1078,7 @@
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights to "Barbie" for the upcoming movie event.
+MSG: The movie "Barbie" has been successfully selected for Friday's showing.
 </t>
         </is>
       </c>
@@ -1100,7 +1100,7 @@
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision to acquire the rights for "Barbie" has been finalized.
 </t>
         </is>
       </c>
@@ -1122,13 +1122,13 @@
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the Friday showing.
+MSG: The decision-making process concluded without a consensus, resulting in no movie being selected for Friday.
 </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1144,13 +1144,13 @@
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: No movie was selected in this meeting.
 </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1166,13 +1166,13 @@
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The committee did not reach a decision on what movie to show on Friday, so the selection process is concluded without a choice.
 </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1188,13 +1188,13 @@
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie."
+MSG: The decision to select a movie for Friday resulted in no final agreement, so the outcome is marked as "no decision."
 </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1210,13 +1210,13 @@
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision about which movie to show on Friday remains unresolved.
 </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1232,7 +1232,7 @@
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1254,7 +1254,7 @@
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" as the movie selected for the upcoming event.
+MSG: The decision to show "Barbie" has been made.
 </t>
         </is>
       </c>
@@ -1276,13 +1276,13 @@
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision process concluded without a choice of movie for Friday, indicating that no decision was made.
 </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1298,13 +1298,13 @@
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded, and no movie will be selected for Friday.
 </t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1320,13 +1320,13 @@
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event.
+MSG: The decision has been recorded, and it has been determined that no movie was selected for Friday.
 </t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>

--- a/Warehouse/CF/judgement_logs_run4o.xlsx
+++ b/Warehouse/CF/judgement_logs_run4o.xlsx
@@ -462,7 +462,7 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision resulted in no movie being selected for Friday.
+MSG: The decision process concluded without a selection for a movie on Friday, and therefore, no movie will be acquired.
 </t>
         </is>
       </c>
@@ -484,13 +484,13 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and "Barbie" will be showcased on Friday.
+MSG: The decision to acquire rights for both movies has been recorded successfully.
 </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -506,13 +506,13 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Oppenheimer" has been confirmed.
+MSG: The rights to both movies have been successfully acquired.
 </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -528,13 +528,13 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been acquired.
+MSG: The decision has been recorded as "no decision" regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -550,7 +550,7 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie will be shown on Friday was not reached, leading to no selection being made.
+MSG: The decision process concluded without selecting a movie for Friday, resulting in no decision being made.
 </t>
         </is>
       </c>
@@ -572,7 +572,7 @@
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie selected for Friday.
+MSG: The committee did not reach a decision about which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -594,7 +594,7 @@
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: I have recorded the decision to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -616,7 +616,7 @@
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process concluded without an agreement on the movie to be shown on Friday, resulting in no decision being made.
+MSG: The decision process did not result in a selection for Friday's movie, as the committee reached no agreement.
 </t>
         </is>
       </c>
@@ -638,13 +638,13 @@
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie for Friday concluded with no final agreement on which film to show.
+MSG: The decision has been successfully recorded, and "Barbie" will be acquired for Friday’s screening.
 </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -660,7 +660,7 @@
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie selection was made.
+MSG: The decision was recorded as "no decision."
 </t>
         </is>
       </c>
@@ -682,7 +682,7 @@
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire rights for both movies has been recorded.
+MSG: The decision to acquire the rights for both movies has been successfully recorded.
 </t>
         </is>
       </c>
@@ -704,13 +704,13 @@
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about Friday's movie was not finalized, so no action will be taken regarding acquiring movie rights.
+MSG: I have successfully recorded the decision to acquire the rights for both movies.
 </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and no movie was selected for Friday.
+MSG: The decision about what movie to show on Friday has not been made, as the committee did not reach an agreement.
 </t>
         </is>
       </c>
@@ -748,7 +748,7 @@
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding Friday's movie remains unresolved, so I have recorded that there was no decision made.
+MSG: The decision regarding which movie to show on Friday was left unresolved, so no selection has been made.
 </t>
         </is>
       </c>
@@ -770,7 +770,7 @@
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, reflecting that no movie will be shown on Friday, as the committee did not reach a consensus.
+MSG: The decision has been recorded, indicating that no movie was selected for Friday.
 </t>
         </is>
       </c>
@@ -792,7 +792,7 @@
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been recorded.
+MSG: The decision has been recorded, and the movie "Barbie" will be acquired for Friday's showing.
 </t>
         </is>
       </c>
@@ -814,7 +814,7 @@
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision" regarding the movie to be shown on Friday.
+MSG: The decision about which movie to show on Friday could not be resolved, resulting in no selection being made.
 </t>
         </is>
       </c>
@@ -836,7 +836,7 @@
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have successfully acquired the rights to both movies.
+MSG: The rights to both movies have been acquired.
 </t>
         </is>
       </c>
@@ -858,7 +858,7 @@
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for both movies has been successfully recorded.
+MSG: I've successfully recorded the decision to acquire rights for both movies.
 </t>
         </is>
       </c>
@@ -880,7 +880,7 @@
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee did not reach a decision regarding a movie for Friday.
+MSG: The decision has been recorded as no decision regarding the movie for Friday.
 </t>
         </is>
       </c>
@@ -902,7 +902,7 @@
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded and "Barbie" will be the movie acquired for Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -924,7 +924,7 @@
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The function for no decision has been called, indicating that there was no agreement reached on which movie to show on Friday.
+MSG: There was no decision made regarding which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -946,13 +946,13 @@
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made: there is no definitive choice for the movie to be shown on Friday.
+MSG: The decision to acquire the rights for both movies has been recorded.
 </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -968,7 +968,7 @@
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie to be shown on Friday has been recorded as no decision being made.
+MSG: The decision regarding the movie to be shown on Friday resulted in no agreement.
 </t>
         </is>
       </c>
@@ -990,7 +990,7 @@
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to show "Barbie" has been finalized.
+MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1012,7 +1012,7 @@
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie to be shown on Friday has resulted in no agreement. Therefore, no further action is taken.
+MSG: The decision has been recorded, and no movie will be selected for Friday.
 </t>
         </is>
       </c>
@@ -1034,7 +1034,7 @@
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded; the movie "Barbie" will be acquired for the event.
+MSG: The decision has been successfully made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1056,7 +1056,7 @@
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday was not made.
+MSG: The decision regarding Friday's movie remains unresolved.
 </t>
         </is>
       </c>
@@ -1078,7 +1078,7 @@
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The movie "Barbie" has been successfully selected for Friday's showing.
+MSG: The decision has been recorded, and "Barbie" will be the movie shown on Friday.
 </t>
         </is>
       </c>
@@ -1100,13 +1100,13 @@
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been finalized.
+MSG: I have successfully acquired the rights to both movies for the Friday showing.
 </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1122,7 +1122,7 @@
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making process concluded without a consensus, resulting in no movie being selected for Friday.
+MSG: The decision has been recorded, and no movie was selected for Friday.
 </t>
         </is>
       </c>
@@ -1166,7 +1166,7 @@
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee did not reach a decision on what movie to show on Friday, so the selection process is concluded without a choice.
+MSG: It seems there was no decision reached regarding which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1188,7 +1188,7 @@
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to select a movie for Friday resulted in no final agreement, so the outcome is marked as "no decision."
+MSG: I have recorded the decision about the movie acquisition as "no decision".
 </t>
         </is>
       </c>
@@ -1210,7 +1210,7 @@
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday remains unresolved.
+MSG: The committee did not reach a decision about what movie to show on Friday, so no action is needed regarding movie acquisition.
 </t>
         </is>
       </c>
@@ -1232,13 +1232,13 @@
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The rights for both movies have been successfully acquired.
 </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1254,7 +1254,7 @@
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to show "Barbie" has been made.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1276,7 +1276,7 @@
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process concluded without a choice of movie for Friday, indicating that no decision was made.
+MSG: The decision regarding which movie to show on Friday has been classified as a "no decision." No further action regarding the acquisition of movie rights is needed at this time.
 </t>
         </is>
       </c>
@@ -1298,7 +1298,7 @@
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and no movie will be selected for Friday.
+MSG: No decision about Friday’s movie was made.
 </t>
         </is>
       </c>
@@ -1320,7 +1320,7 @@
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and it has been determined that no movie was selected for Friday.
+MSG: The decision has been successfully recorded as "no decision," indicating that the committee could not reach an agreement on which movie to show on Friday.
 </t>
         </is>
       </c>

--- a/Warehouse/CF/judgement_logs_run4o.xlsx
+++ b/Warehouse/CF/judgement_logs_run4o.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,13 +456,13 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>./Warehouse/CF/run4o_discovery_04_28_2025 at_13;23;21.json</t>
+          <t>./Warehouse/CF/run4o_08_11_2025 at_15;19;50.json</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process concluded without a selection for a movie on Friday, and therefore, no movie will be acquired.
+MSG: The decision regarding the movie for Friday did not result in a selection, leading to a no decision outcome.
 </t>
         </is>
       </c>
@@ -478,19 +478,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>./Warehouse/CF/run4o_discovery_05_02_2025 at_01;37;52.json</t>
+          <t>./Warehouse/CF/run4o_08_11_2025 at_13;09;46.json</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire rights for both movies has been recorded successfully.
+MSG: The decision has been recorded, indicating that no movie was selected for Friday.
 </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -500,19 +500,19 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>./Warehouse/CF/run4o_discovery_05_02_2025 at_01;32;26.json</t>
+          <t>./Warehouse/CF/run4o_discovery_04_28_2025 at_13;23;21.json</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been successfully acquired.
+MSG: The decision has been recorded as no decision being made regarding Friday's movie.
 </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -522,13 +522,13 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>./Warehouse/CF/run4o_discovery_05_02_2025 at_01;21;56.json</t>
+          <t>./Warehouse/CF/run4o_08_11_2025 at_20;14;18.json</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision" regarding the movie to be shown on Friday.
+MSG: The committee did not reach a definitive decision about which movie to show on Friday. Therefore, I will call the no_decision function.
 </t>
         </is>
       </c>
@@ -544,19 +544,19 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>./Warehouse/CF/run4o_discovery_05_02_2025 at_01;25;05.json</t>
+          <t>./Warehouse/CF/run4o_08_11_2025 at_20;16;46.json</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process concluded without selecting a movie for Friday, resulting in no decision being made.
+MSG: The decision to acquire the rights for "Barbie" has been recorded.
 </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -566,19 +566,19 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>./Warehouse/CF/run4o_discovery_05_02_2025 at_01;09;50.json</t>
+          <t>./Warehouse/CF/run4o_discovery_05_02_2025 at_01;37;52.json</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee did not reach a decision about which movie to show on Friday.
+MSG: The rights to both movies have been acquired for Friday.
 </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -588,19 +588,19 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>./Warehouse/CF/run4o_discovery_05_02_2025 at_01;11;56.json</t>
+          <t>./Warehouse/CF/run4o_discovery_05_02_2025 at_01;32;26.json</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Barbie."
+MSG: The decision has been made to acquire the rights for both movies.
 </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -610,13 +610,13 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>./Warehouse/CF/run4o_discovery_05_02_2025 at_01;30;20.json</t>
+          <t>./Warehouse/CF/run4o_discovery_05_02_2025 at_01;21;56.json</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process did not result in a selection for Friday's movie, as the committee reached no agreement.
+MSG: The decision has been recorded as no movie being selected for Friday.
 </t>
         </is>
       </c>
@@ -632,19 +632,19 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>./Warehouse/CF/run4o_discovery_05_02_2025 at_01;08;09.json</t>
+          <t>./Warehouse/CF/run4o_discovery_05_02_2025 at_01;25;05.json</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been successfully recorded, and "Barbie" will be acquired for Friday’s screening.
+MSG: The decision has been recorded as no decision on what movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -654,13 +654,13 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>./Warehouse/CF/run4o_discovery_05_02_2025 at_01;17;25.json</t>
+          <t>./Warehouse/CF/run4o_08_12_2025 at_20;08;13.json</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision was recorded as "no decision."
+MSG: The function has been called, indicating that no decision was made regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -676,19 +676,19 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>./Warehouse/CF/run4o_discovery_05_02_2025 at_01;27;25.json</t>
+          <t>./Warehouse/CF/run4o_08_11_2025 at_13;24;08.json</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for both movies has been successfully recorded.
+MSG: The decision has been recorded indicating that no movie was selected in this meeting.
 </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -698,19 +698,19 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>./Warehouse/CF/run4o_discovery_05_02_2025 at_01;12;54.json</t>
+          <t>./Warehouse/CF/run4o_discovery_05_02_2025 at_01;09;50.json</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have successfully recorded the decision to acquire the rights for both movies.
+MSG: The decision process has concluded without selecting a movie for Friday.
 </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -720,13 +720,13 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>./Warehouse/CF/run4o_discovery_04_28_2025 at_13;27;50.json</t>
+          <t>./Warehouse/CF/run4o_08_12_2025 at_20;12;28.json</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about what movie to show on Friday has not been made, as the committee did not reach an agreement.
+MSG: The decision about Friday's movie remains unresolved, as no movie was selected.
 </t>
         </is>
       </c>
@@ -742,13 +742,13 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>./Warehouse/CF/run4o_discovery_05_02_2025 at_01;34;42.json</t>
+          <t>./Warehouse/CF/run4o_08_11_2025 at_20;21;34.json</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding which movie to show on Friday was left unresolved, so no selection has been made.
+MSG: The conversation did not lead to a decision on which movie will be shown on Friday. Therefore, I have recorded the outcome as no decision.
 </t>
         </is>
       </c>
@@ -764,19 +764,19 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>./Warehouse/CF/run4o_discovery_04_28_2025 at_13;30;20.json</t>
+          <t>./Warehouse/CF/run4o_08_11_2025 at_13;18;12.json</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that no movie was selected for Friday.
+MSG: The rights for both movies have been acquired.
 </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -786,13 +786,13 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>./Warehouse/CF/run4o_discovery_04_28_2025 at_13;26;05.json</t>
+          <t>./Warehouse/CF/run4o_08_11_2025 at_13;12;47.json</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and the movie "Barbie" will be acquired for Friday's showing.
+MSG: The decision to show "Barbie" has been confirmed.
 </t>
         </is>
       </c>
@@ -808,19 +808,19 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>./Warehouse/CF/run4o_discovery_05_02_2025 at_01;25;52.json</t>
+          <t>./Warehouse/CF/run4o_discovery_05_02_2025 at_01;11;56.json</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday could not be resolved, resulting in no selection being made.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -830,7 +830,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>./Warehouse/CF/run4o_discovery_05_02_2025 at_01;14;14.json</t>
+          <t>./Warehouse/CF/run4o_08_11_2025 at_15;20;31.json</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -852,19 +852,19 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>./Warehouse/CF/run4o_discovery_04_28_2025 at_13;24;37.json</t>
+          <t>./Warehouse/CF/run4o_discovery_05_02_2025 at_01;30;20.json</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I've successfully recorded the decision to acquire rights for both movies.
+MSG: The decision has been recorded as no decision regarding the movie to be shown on Friday was made.
 </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -874,13 +874,13 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>./Warehouse/CF/run4o_discovery_04_28_2025 at_13;26;43.json</t>
+          <t>./Warehouse/CF/run4o_08_11_2025 at_15;22;45.json</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision regarding the movie for Friday.
+MSG: The decision for Friday's movie has ended without a selection.
 </t>
         </is>
       </c>
@@ -896,19 +896,19 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>./Warehouse/CF/run4o_discovery_04_28_2025 at_13;24;03.json</t>
+          <t>./Warehouse/CF/run4o_08_16_2025 at_13;44;30.json</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision about which movie to show on Friday could not be made.
 </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -918,13 +918,13 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>./Warehouse/CF/run4o_discovery_05_02_2025 at_01;24;10.json</t>
+          <t>./Warehouse/CF/run4o_08_11_2025 at_13;20;00.json</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no decision made regarding which movie to show on Friday.
+MSG: The decision about which movie to show on Friday has resulted in no consensus, and therefore, no movie has been selected.
 </t>
         </is>
       </c>
@@ -940,19 +940,19 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>./Warehouse/CF/run4o_discovery_04_28_2025 at_13;25;19.json</t>
+          <t>./Warehouse/CF/run4o_08_16_2025 at_13;41;08.json</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for both movies has been recorded.
+MSG: The decision for Friday's movie concluded without a specific choice being made, meaning no decision will be recorded.
 </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -962,19 +962,19 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>./Warehouse/CF/run4o_discovery_05_02_2025 at_01;23;09.json</t>
+          <t>./Warehouse/CF/run4o_08_11_2025 at_20;15;24.json</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie to be shown on Friday resulted in no agreement.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -984,13 +984,13 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>./Warehouse/CF/run4o_discovery_05_02_2025 at_01;20;08.json</t>
+          <t>./Warehouse/CF/run4o_discovery_05_02_2025 at_01;08;09.json</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1006,13 +1006,13 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>./Warehouse/CF/run4o_discovery_05_02_2025 at_01;18;16.json</t>
+          <t>./Warehouse/CF/run4o_08_11_2025 at_20;17;38.json</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and no movie will be selected for Friday.
+MSG: The decision has been recorded as "no decision."
 </t>
         </is>
       </c>
@@ -1028,13 +1028,13 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>./Warehouse/CF/run4o_discovery_05_02_2025 at_01;10;47.json</t>
+          <t>./Warehouse/CF/run4o_08_12_2025 at_20;13;02.json</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been successfully made to acquire the rights for "Barbie."
+MSG: The decision has been recorded, and the selected movie for Friday is "Barbie."
 </t>
         </is>
       </c>
@@ -1050,13 +1050,13 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>./Warehouse/CF/run4o_discovery_05_02_2025 at_01;36;35.json</t>
+          <t>./Warehouse/CF/run4o_discovery_05_02_2025 at_01;17;25.json</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding Friday's movie remains unresolved.
+MSG: The decision process has concluded without a selection for Friday's movie.
 </t>
         </is>
       </c>
@@ -1072,19 +1072,19 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>./Warehouse/CF/run4o_discovery_05_02_2025 at_01;31;10.json</t>
+          <t>./Warehouse/CF/run4o_discovery_05_02_2025 at_01;27;25.json</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and "Barbie" will be the movie shown on Friday.
+MSG: The decision has been successfully recorded to acquire the rights for both movies.
 </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1094,13 +1094,13 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>./Warehouse/CF/run4o_discovery_05_02_2025 at_01;35;23.json</t>
+          <t>./Warehouse/CF/run4o_discovery_05_02_2025 at_01;12;54.json</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have successfully acquired the rights to both movies for the Friday showing.
+MSG: The decision has been made to acquire the rights to both movies, "Oppenheimer" and "Barbie."
 </t>
         </is>
       </c>
@@ -1116,19 +1116,19 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>./Warehouse/CF/run4o_discovery_04_28_2025 at_13;29;20.json</t>
+          <t>./Warehouse/CF/run4o_discovery_04_28_2025 at_13;27;50.json</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and no movie was selected for Friday.
+MSG: The rights to both movies have been successfully acquired.
 </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1138,19 +1138,19 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>./Warehouse/CF/run4o_discovery_04_28_2025 at_13;28;32.json</t>
+          <t>./Warehouse/CF/run4o_08_16_2025 at_13;46;06.json</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: No movie was selected in this meeting.
+MSG: The decision has been recorded to show "Barbie" on Friday.
 </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1160,13 +1160,13 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>./Warehouse/CF/run4o_discovery_05_02_2025 at_01;38;46.json</t>
+          <t>./Warehouse/CF/run4o_08_16_2025 at_13;43;38.json</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: It seems there was no decision reached regarding which movie to show on Friday.
+MSG: The conversation ended without a decision about which movie to show on Friday. The no_decision function has been executed.
 </t>
         </is>
       </c>
@@ -1182,13 +1182,13 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>./Warehouse/CF/run4o_discovery_05_02_2025 at_01;16;12.json</t>
+          <t>./Warehouse/CF/run4o_discovery_05_02_2025 at_01;34;42.json</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision about the movie acquisition as "no decision".
+MSG: The decision has been recorded as there being no agreement on a movie for Friday.
 </t>
         </is>
       </c>
@@ -1204,19 +1204,19 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>./Warehouse/CF/run4o_discovery_05_02_2025 at_01;28;18.json</t>
+          <t>./Warehouse/CF/run4o_08_11_2025 at_15;21;52.json</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee did not reach a decision about what movie to show on Friday, so no action is needed regarding movie acquisition.
+MSG: The decision to acquire the rights for "Barbie" has been recorded.
 </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1226,19 +1226,19 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>./Warehouse/CF/run4o_discovery_05_02_2025 at_01;33;51.json</t>
+          <t>./Warehouse/CF/run4o_08_11_2025 at_13;11;13.json</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights for both movies have been successfully acquired.
+MSG: The decision has been recorded, and the rights to "Barbie" will be acquired for the assembly.
 </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1248,19 +1248,19 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>./Warehouse/CF/run4o_discovery_05_02_2025 at_01;29;43.json</t>
+          <t>./Warehouse/CF/run4o_08_16_2025 at_13;41;46.json</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been made to acquire the rights for "Oppenheimer" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1270,19 +1270,19 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>./Warehouse/CF/run4o_discovery_05_02_2025 at_01;21;06.json</t>
+          <t>./Warehouse/CF/run4o_08_16_2025 at_13;43;06.json</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding which movie to show on Friday has been classified as a "no decision." No further action regarding the acquisition of movie rights is needed at this time.
+MSG: The rights for both movies have been successfully acquired.
 </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1292,13 +1292,13 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>./Warehouse/CF/run4o_discovery_05_02_2025 at_01;33;04.json</t>
+          <t>./Warehouse/CF/run4o_discovery_04_28_2025 at_13;30;20.json</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: No decision about Friday’s movie was made.
+MSG: The decision has been recorded with no movie selected for Friday.
 </t>
         </is>
       </c>
@@ -1314,17 +1314,1337 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
+          <t>./Warehouse/CF/run4o_discovery_04_28_2025 at_13;26;05.json</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
+</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>./Warehouse/CF/run4o_discovery_05_02_2025 at_01;25;52.json</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no decision on which movie to acquire was made by the committee.
+</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>./Warehouse/CF/run4o_discovery_05_02_2025 at_01;14;14.json</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to acquire the rights for both movies has been successfully recorded.
+</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>./Warehouse/CF/run4o_discovery_04_28_2025 at_13;24;37.json</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for both movies.
+</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>./Warehouse/CF/run4o_08_16_2025 at_13;40;23.json</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no movie was selected.
+</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>./Warehouse/CF/run4o_discovery_04_28_2025 at_13;26;43.json</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision-making process did not conclude with a selected movie for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>./Warehouse/CF/run4o_discovery_04_28_2025 at_13;24;03.json</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>./Warehouse/CF/run4o_08_11_2025 at_20;20;55.json</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision about which movie to show on Friday resulted in no conclusion.
+</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>./Warehouse/CF/run4o_08_12_2025 at_20;09;28.json</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as having no clear outcome regarding the movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>./Warehouse/CF/run4o_discovery_05_02_2025 at_01;24;10.json</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision was recorded as there being no agreement on which movie to show on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>./Warehouse/CF/run4o_08_16_2025 at_13;45;33.json</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for "Barbie."
+</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>./Warehouse/CF/run4o_08_11_2025 at_15;18;00.json</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, and the rights for "Barbie" will be acquired.
+</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>./Warehouse/CF/run4o_discovery_04_28_2025 at_13;25;19.json</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The rights for both movies have been successfully acquired.
+</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>./Warehouse/CF/run4o_08_12_2025 at_20;10;37.json</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to acquire rights for the movie "Barbie" has been successfully recorded.
+</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>./Warehouse/CF/run4o_08_11_2025 at_13;20;35.json</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, and the rights to "Barbie" have been acquired for the upcoming showing on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>./Warehouse/CF/run4o_08_11_2025 at_13;25;42.json</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The rights to both movies have been acquired successfully.
+</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>./Warehouse/CF/run4o_08_11_2025 at_15;19;12.json</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
+</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>./Warehouse/CF/run4o_08_11_2025 at_15;16;26.json</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision about which movie to show on Friday could not be reached.
+</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>./Warehouse/CF/run4o_08_11_2025 at_13;23;13.json</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, indicating that no movie was selected during the discussion.
+</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>./Warehouse/CF/run4o_discovery_05_02_2025 at_01;23;09.json</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no decision regarding the movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>./Warehouse/CF/run4o_discovery_05_02_2025 at_01;20;08.json</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, and the rights for "Barbie" will be acquired.
+</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>./Warehouse/CF/run4o_discovery_05_02_2025 at_01;18;16.json</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision-making process concluded without a clear agreement on which movie to show on Friday, resulting in no decision being made.
+</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>./Warehouse/CF/run4o_08_11_2025 at_13;16;37.json</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: I have successfully recorded the decision to acquire the rights for both movies. The committee has decided to show "Barbie" and also discuss "Oppenheimer."
+</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>./Warehouse/CF/run4o_discovery_05_02_2025 at_01;10;47.json</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded to acquire the rights for "Barbie".
+</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>./Warehouse/CF/run4o_08_12_2025 at_20;15;27.json</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, indicating that no agreement on a movie for Friday was reached.
+</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>./Warehouse/CF/run4o_08_11_2025 at_20;23;08.json</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The rights to both movies have been acquired.
+</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>./Warehouse/CF/run4o_08_12_2025 at_20;07;06.json</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to acquire the rights for "Barbie" has been confirmed.
+</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>./Warehouse/CF/run4o_08_11_2025 at_13;10;26.json</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for "Barbie."
+</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>./Warehouse/CF/run4o_08_11_2025 at_20;23;46.json</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, indicating that no consensus was reached regarding the movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>./Warehouse/CF/run4o_08_11_2025 at_15;17;22.json</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, indicating that no consensus was reached regarding the movie to show on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>./Warehouse/CF/run4o_08_11_2025 at_13;24;41.json</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision regarding the movie to show on Friday has not been made, so no action can be taken at this time.
+</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>./Warehouse/CF/run4o_08_11_2025 at_13;17;16.json</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, indicating that no movie has been selected for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>./Warehouse/CF/run4o_08_11_2025 at_13;08;50.json</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to acquire the rights to "Barbie" has been successfully recorded.
+</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>./Warehouse/CF/run4o_08_11_2025 at_13;18;56.json</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, indicating that no consensus was reached regarding the movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>./Warehouse/CF/run4o_discovery_05_02_2025 at_01;36;35.json</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The committee did not arrive at a decision regarding which movie to show on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>./Warehouse/CF/run4o_discovery_05_02_2025 at_01;31;10.json</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: I have recorded the decision to acquire rights for "Barbie" as the movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>./Warehouse/CF/run4o_08_12_2025 at_20;13;52.json</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as a no decision regarding the movie for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>./Warehouse/CF/run4o_discovery_05_02_2025 at_01;35;23.json</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no decision being made regarding the movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>./Warehouse/CF/run4o_08_12_2025 at_20;14;43.json</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision about which movie to show on Friday has not been made.
+</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>./Warehouse/CF/run4o_08_11_2025 at_15;21;13.json</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The movie "Barbie" has been selected for acquisition.
+</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>./Warehouse/CF/run4o_08_11_2025 at_13;15;06.json</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as "no decision" regarding the movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>./Warehouse/CF/run4o_08_11_2025 at_13;14;23.json</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The movie "Barbie" has been selected for Friday's showing.
+</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>./Warehouse/CF/run4o_discovery_04_28_2025 at_13;29;20.json</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, and no movie will be shown on Friday as the committee could not reach an agreement.
+</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>./Warehouse/CF/run4o_08_11_2025 at_13;13;41.json</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The rights to both movies have been acquired successfully.
+</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>./Warehouse/CF/run4o_08_16_2025 at_13;46;38.json</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded with no agreement reached on the movie for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>./Warehouse/CF/run4o_discovery_04_28_2025 at_13;28;32.json</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision-making process ended without a clear choice of movie for Friday. As per the criteria, no movie will be acquired at this time.
+</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>./Warehouse/CF/run4o_08_11_2025 at_15;23;40.json</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The rights to both movies have been successfully acquired.
+</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>./Warehouse/CF/run4o_08_12_2025 at_20;11;32.json</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
+</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>./Warehouse/CF/run4o_discovery_05_02_2025 at_01;38;46.json</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as "no decision" regarding the movie selection for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>./Warehouse/CF/run4o_discovery_05_02_2025 at_01;16;12.json</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as having no choice for Friday's movie.
+</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>./Warehouse/CF/run4o_discovery_05_02_2025 at_01;28;18.json</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: I have recorded the decision about the movie to show on Friday as a "no decision."
+</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>./Warehouse/CF/run4o_discovery_05_02_2025 at_01;33;51.json</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for showing "Barbie" on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>./Warehouse/CF/run4o_discovery_05_02_2025 at_01;29;43.json</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision process concluded with no movie selected for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>./Warehouse/CF/run4o_08_11_2025 at_20;18;26.json</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to acquire the rights to both movies has been recorded successfully.
+</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>./Warehouse/CF/run4o_discovery_05_02_2025 at_01;21;06.json</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision regarding the movie for Friday remains unresolved, and no selection has been made.
+</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>./Warehouse/CF/run4o_08_11_2025 at_13;21;35.json</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to acquire the rights for both movies has been recorded.
+</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>./Warehouse/CF/run4o_08_16_2025 at_13;42;36.json</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to acquire the rights for both movies has been recorded successfully.
+</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>./Warehouse/CF/run4o_discovery_05_02_2025 at_01;33;04.json</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision regarding the movie to be shown on Friday has resulted in no consensus, and thus no movie has been selected.
+</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
           <t>./Warehouse/CF/run4o_discovery_05_02_2025 at_01;15;11.json</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MSG: None
-MSG: The decision has been successfully recorded as "no decision," indicating that the committee could not reach an agreement on which movie to show on Friday.
-</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
+      <c r="C99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no decision regarding the movie for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>./Warehouse/CF/run4o_08_11_2025 at_20;19;27.json</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The rights to both movies have been acquired successfully.
+</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>./Warehouse/CF/run4o_08_11_2025 at_13;22;19.json</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The committee did not reach a decision regarding which movie to show.
+</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
         <is>
           <t xml:space="preserve">no_decision, </t>
         </is>
